--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\Grabber\2019\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7B9D65C1-5C4D-400D-8430-514D4CE9788B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC27835D-B13E-4E37-8CDE-9257E696CC89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2EF092-A2DB-479C-8478-202E4A449F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$6:$D$29,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$I$6:$I$29,Specifications!$M$6:$M$29,Specifications!$Q$6:$Q$29,Specifications!$U$6:$U$29,Specifications!$Y$6:$Y$29,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$33:$I$43,Specifications!$M$33:$M$43,Specifications!$Q$33:$Q$43,Specifications!$U$33:$U$43,Specifications!$Y$33:$Y$43</definedName>
+    <definedName name="checkbox">Specifications!$C$7:$D$28,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$28,Specifications!$M$7:$M$28,Specifications!$Q$7:$Q$28,Specifications!$U$7:$U$28,Specifications!$Y$7:$Y$28,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$31:$I$41,Specifications!$M$31:$M$41,Specifications!$Q$31:$Q$41,Specifications!$U$31:$U$41,Specifications!$Y$31:$Y$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="91">
   <si>
     <t>Website</t>
   </si>
@@ -121,6 +121,39 @@
     <t>custom2__c</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Template Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Please insert template name]</t>
+    </r>
+  </si>
+  <si>
     <t>Campaign ID</t>
   </si>
   <si>
@@ -154,18 +187,6 @@
     <t>Report created by user</t>
   </si>
   <si>
-    <t>Export Type</t>
-  </si>
-  <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
@@ -184,9 +205,6 @@
     <t>SAGE: Person</t>
   </si>
   <si>
-    <t>SAGE: Firma</t>
-  </si>
-  <si>
     <t>personsalutation</t>
   </si>
   <si>
@@ -241,83 +259,92 @@
     <t>titlecode</t>
   </si>
   <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>emailaddress</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>SAGE: Lead</t>
+  </si>
+  <si>
+    <t>SAGE: Company</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>address1</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>emailaddress</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>SAGE: Interessent</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>Typ</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +390,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -373,6 +407,13 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -472,37 +513,6 @@
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -538,6 +548,19 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
@@ -550,47 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -616,6 +598,15 @@
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -1353,11 +1344,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00A376"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00A376"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00A376"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00A376"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF6FEB6F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF6FEB6F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF6FEB6F"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF6FEB6F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1368,191 +1450,472 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1803,11 +2166,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1840,13 +2203,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1918,13 +2281,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2286,10 +2649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,9 +2676,9 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2324,287 +2687,261 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="45"/>
-      <c r="K2" s="45"/>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="43"/>
+      <c r="K3" s="43"/>
+    </row>
+    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="G3" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="O3" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="S3" s="97" t="s">
+      <c r="D4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="G4" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="O4" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="S4" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="93"/>
+      <c r="U4" s="94"/>
+      <c r="W4" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="94"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="36"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="60"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="60"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="75"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="75"/>
+    </row>
+    <row r="8" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="G8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="98"/>
-      <c r="U3" s="99"/>
-      <c r="W3" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="99"/>
-    </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="W5" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="X5" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="36"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="62"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="62"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="78"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="78"/>
-    </row>
-    <row r="7" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="I8" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="G7" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="64" t="s">
+      <c r="L8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="64"/>
-      <c r="S7" s="79" t="s">
+      <c r="O8" s="62"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="63"/>
+      <c r="S8" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="80"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="80"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="37"/>
-      <c r="G8" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="66"/>
-      <c r="S8" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="82"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="82"/>
+      <c r="U8" s="78"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="77"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
-      <c r="G9" s="65" t="s">
-        <v>89</v>
+      <c r="G9" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="66" t="s">
+      <c r="K9" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="66"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="82"/>
-      <c r="W9" s="83"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="61"/>
+      <c r="S9" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="78"/>
+      <c r="W9" s="79"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="82"/>
+      <c r="Y9" s="78"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
-      <c r="G10" s="65" t="s">
-        <v>77</v>
+      <c r="G10" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="66" t="s">
+      <c r="K10" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="65"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="66"/>
-      <c r="S10" s="83"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="63"/>
+      <c r="S10" s="79"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="82"/>
-      <c r="W10" s="83"/>
+      <c r="U10" s="78"/>
+      <c r="W10" s="79"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="82"/>
+      <c r="Y10" s="78"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2614,22 +2951,34 @@
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="37"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="66"/>
+      <c r="G11" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="66"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="66"/>
-      <c r="S11" s="83"/>
+      <c r="K11" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="62"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="63"/>
+      <c r="S11" s="79"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="82"/>
-      <c r="W11" s="83"/>
+      <c r="U11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="82"/>
+      <c r="Y11" s="78"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2639,34 +2988,34 @@
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="37"/>
-      <c r="G12" s="65" t="s">
-        <v>90</v>
+      <c r="G12" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="66"/>
-      <c r="O12" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="66" t="s">
+      <c r="K12" s="62"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="63"/>
+      <c r="O12" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="83"/>
+      <c r="S12" s="79"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="82"/>
-      <c r="W12" s="83"/>
+      <c r="U12" s="78"/>
+      <c r="W12" s="79"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="82"/>
+      <c r="Y12" s="78"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2676,83 +3025,83 @@
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="37"/>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="62" t="s">
+      <c r="L13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="61" t="s">
+      <c r="O13" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="62" t="s">
+      <c r="P13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="83"/>
+      <c r="S13" s="79"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="82"/>
-      <c r="W13" s="83"/>
+      <c r="U13" s="78"/>
+      <c r="W13" s="79"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="82"/>
+      <c r="Y13" s="78"/>
     </row>
-    <row r="14" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="G14" s="67" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="64" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="67" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="68" t="s">
+      <c r="L14" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="68" t="s">
+      <c r="P14" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="84"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="85"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="85"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="81"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="81"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -2762,40 +3111,40 @@
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="37"/>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="66" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="67" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="70" t="s">
+      <c r="L15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="69" t="s">
+      <c r="O15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="70" t="s">
+      <c r="P15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="83"/>
+      <c r="S15" s="79"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="82"/>
-      <c r="W15" s="83"/>
+      <c r="U15" s="78"/>
+      <c r="W15" s="79"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="82"/>
+      <c r="Y15" s="78"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2805,40 +3154,40 @@
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
-      <c r="G16" s="65" t="s">
-        <v>91</v>
+      <c r="G16" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="66" t="s">
+      <c r="K16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="66" t="s">
+      <c r="O16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="83"/>
+      <c r="S16" s="79"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="82"/>
-      <c r="W16" s="83"/>
+      <c r="U16" s="78"/>
+      <c r="W16" s="79"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="82"/>
+      <c r="Y16" s="78"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2848,40 +3197,40 @@
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="37"/>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="62" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="66" t="s">
+      <c r="L17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="O17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="66" t="s">
+      <c r="P17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="83"/>
+      <c r="S17" s="79"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="82"/>
-      <c r="W17" s="83"/>
+      <c r="U17" s="78"/>
+      <c r="W17" s="79"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="82"/>
+      <c r="Y17" s="78"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -2891,38 +3240,36 @@
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="37"/>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="62" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="65" t="s">
+      <c r="K18" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="90"/>
-      <c r="M18" s="66" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="63"/>
+      <c r="O18" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="83"/>
+      <c r="S18" s="79"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="82"/>
-      <c r="W18" s="83"/>
+      <c r="U18" s="78"/>
+      <c r="W18" s="79"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="82"/>
+      <c r="Y18" s="78"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2932,63 +3279,53 @@
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="37"/>
-      <c r="G19" s="65"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="66"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="66" t="s">
+      <c r="K19" s="62"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="63"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="63"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="78"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="78"/>
+    </row>
+    <row r="20" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="G20" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="65"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="66"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="82"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="82"/>
-    </row>
-    <row r="20" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="G20" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="84"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="85"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="85"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="65"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="65"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="81"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="81"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -2998,34 +3335,40 @@
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="62" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="M21" s="66" t="s">
+      <c r="L21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="65"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="66"/>
-      <c r="S21" s="83"/>
+      <c r="O21" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="79"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="82"/>
-      <c r="W21" s="83"/>
+      <c r="U21" s="78"/>
+      <c r="W21" s="79"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="82"/>
+      <c r="Y21" s="78"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3035,133 +3378,143 @@
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="37"/>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="59" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="62" t="s">
+      <c r="L22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="62" t="s">
+      <c r="P22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S22" s="77"/>
+      <c r="S22" s="74"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="78"/>
-      <c r="W22" s="77"/>
+      <c r="U22" s="75"/>
+      <c r="W22" s="74"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="78"/>
+      <c r="Y22" s="75"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
-      <c r="G23" s="61" t="s">
-        <v>78</v>
+      <c r="G23" s="59" t="s">
+        <v>72</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="62"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="62"/>
-      <c r="S23" s="77"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="60"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="60"/>
+      <c r="S23" s="74"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="78"/>
-      <c r="W23" s="77"/>
+      <c r="U23" s="75"/>
+      <c r="W23" s="74"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="78"/>
+      <c r="Y23" s="75"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="37"/>
-      <c r="G24" s="61" t="s">
-        <v>80</v>
+      <c r="G24" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="60" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="62"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="62"/>
-      <c r="S24" s="77"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="74"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="78"/>
-      <c r="W24" s="77"/>
+      <c r="U24" s="75"/>
+      <c r="W24" s="74"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="78"/>
+      <c r="Y24" s="75"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="37"/>
-      <c r="G25" s="61" t="s">
-        <v>82</v>
+      <c r="G25" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="60" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="61"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="62"/>
-      <c r="O25" s="61"/>
+      <c r="M25" s="60"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="62"/>
-      <c r="S25" s="77"/>
+      <c r="Q25" s="60"/>
+      <c r="S25" s="74"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="78"/>
-      <c r="W25" s="77"/>
+      <c r="U25" s="75"/>
+      <c r="W25" s="74"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="78"/>
+      <c r="Y25" s="75"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3171,562 +3524,628 @@
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
       <c r="E26" s="37"/>
-      <c r="G26" s="61"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="62"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="61" t="s">
-        <v>77</v>
+      <c r="K26" s="59" t="s">
+        <v>4</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="61"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="62"/>
-      <c r="S26" s="77"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="60"/>
+      <c r="S26" s="74"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="78"/>
-      <c r="W26" s="77"/>
+      <c r="U26" s="75"/>
+      <c r="W26" s="74"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="78"/>
+      <c r="Y26" s="75"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="G27" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="62"/>
+      <c r="I27" s="60" t="s">
+        <v>23</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="61"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="62"/>
-      <c r="O27" s="61" t="s">
+      <c r="M27" s="60"/>
+      <c r="O27" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P27" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="62" t="s">
+      <c r="Q27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="S27" s="77"/>
+      <c r="S27" s="74"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="78"/>
-      <c r="W27" s="77"/>
+      <c r="U27" s="75"/>
+      <c r="W27" s="74"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="78"/>
+      <c r="Y27" s="75"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="96"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="62"/>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="38"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="62"/>
-      <c r="O28" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="P28" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q28" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="77"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="78"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="78"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="70"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="70"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="84"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="84"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="38"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+    <row r="29" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="8"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="73"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="73"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="88"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="88"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="9"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="9"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="55"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="9"/>
     </row>
-    <row r="30" spans="1:25" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="8"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="9"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="9"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="57"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="9"/>
+    <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="W30" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y30" s="73" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+    <row r="31" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="97"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="33"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="63"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="63"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="63"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="78"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="78"/>
     </row>
-    <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="S32" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="T32" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="U32" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="W32" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="X32" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y32" s="76" t="s">
-        <v>17</v>
-      </c>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="34"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="63"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="63"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="63"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="78"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="78"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="33"/>
-      <c r="G33" s="65"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="34"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="66"/>
-      <c r="K33" s="65"/>
+      <c r="I33" s="63"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="66"/>
-      <c r="O33" s="65"/>
+      <c r="M33" s="63"/>
+      <c r="O33" s="62"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="66"/>
-      <c r="S33" s="83"/>
+      <c r="Q33" s="63"/>
+      <c r="S33" s="79"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="82"/>
-      <c r="W33" s="83"/>
+      <c r="U33" s="78"/>
+      <c r="W33" s="79"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="82"/>
+      <c r="Y33" s="78"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="106"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="34"/>
-      <c r="G34" s="65"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="66"/>
-      <c r="K34" s="65"/>
+      <c r="I34" s="63"/>
+      <c r="K34" s="62"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="66"/>
-      <c r="O34" s="65"/>
+      <c r="M34" s="63"/>
+      <c r="O34" s="62"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="66"/>
-      <c r="S34" s="83"/>
+      <c r="Q34" s="63"/>
+      <c r="S34" s="79"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="82"/>
-      <c r="W34" s="83"/>
+      <c r="U34" s="78"/>
+      <c r="W34" s="79"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="82"/>
+      <c r="Y34" s="78"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="34"/>
-      <c r="G35" s="65"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="66"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="63"/>
+      <c r="K35" s="62"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="66"/>
-      <c r="O35" s="65"/>
+      <c r="M35" s="63"/>
+      <c r="O35" s="62"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="66"/>
-      <c r="S35" s="83"/>
+      <c r="Q35" s="63"/>
+      <c r="S35" s="79"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="82"/>
-      <c r="W35" s="83"/>
+      <c r="U35" s="78"/>
+      <c r="W35" s="79"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="82"/>
+      <c r="Y35" s="78"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="106"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="34"/>
-      <c r="G36" s="65"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="66"/>
-      <c r="K36" s="65"/>
+      <c r="I36" s="63"/>
+      <c r="K36" s="62"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="66"/>
-      <c r="O36" s="65"/>
+      <c r="M36" s="63"/>
+      <c r="O36" s="62"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="66"/>
-      <c r="S36" s="83"/>
+      <c r="Q36" s="63"/>
+      <c r="S36" s="79"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="82"/>
-      <c r="W36" s="83"/>
+      <c r="U36" s="78"/>
+      <c r="W36" s="79"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="82"/>
+      <c r="Y36" s="78"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="65"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="63"/>
+      <c r="K37" s="62"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="66"/>
-      <c r="O37" s="65"/>
+      <c r="M37" s="63"/>
+      <c r="O37" s="62"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="66"/>
-      <c r="S37" s="83"/>
+      <c r="Q37" s="63"/>
+      <c r="S37" s="79"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="82"/>
-      <c r="W37" s="83"/>
+      <c r="U37" s="78"/>
+      <c r="W37" s="79"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="82"/>
+      <c r="Y37" s="78"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="34"/>
-      <c r="G38" s="65"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="66"/>
-      <c r="K38" s="65"/>
+      <c r="I38" s="63"/>
+      <c r="K38" s="62"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="66"/>
-      <c r="O38" s="65"/>
+      <c r="M38" s="63"/>
+      <c r="O38" s="62"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="66"/>
-      <c r="S38" s="83"/>
+      <c r="Q38" s="63"/>
+      <c r="S38" s="79"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="82"/>
-      <c r="W38" s="83"/>
+      <c r="U38" s="78"/>
+      <c r="W38" s="79"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="82"/>
+      <c r="Y38" s="78"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="106"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="34"/>
-      <c r="G39" s="65"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="66"/>
-      <c r="K39" s="65"/>
+      <c r="I39" s="63"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="66"/>
-      <c r="O39" s="65"/>
+      <c r="M39" s="63"/>
+      <c r="O39" s="62"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="66"/>
-      <c r="S39" s="83"/>
+      <c r="Q39" s="63"/>
+      <c r="S39" s="79"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="82"/>
-      <c r="W39" s="83"/>
+      <c r="U39" s="78"/>
+      <c r="W39" s="79"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="82"/>
+      <c r="Y39" s="78"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="106"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="34"/>
-      <c r="G40" s="65"/>
+      <c r="G40" s="62"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="66"/>
-      <c r="K40" s="65"/>
+      <c r="I40" s="63"/>
+      <c r="K40" s="62"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="66"/>
-      <c r="O40" s="65"/>
+      <c r="M40" s="63"/>
+      <c r="O40" s="62"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="66"/>
-      <c r="S40" s="83"/>
+      <c r="Q40" s="63"/>
+      <c r="S40" s="79"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="82"/>
-      <c r="W40" s="83"/>
+      <c r="U40" s="78"/>
+      <c r="W40" s="79"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="82"/>
+      <c r="Y40" s="78"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="34"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="66"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="66"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="66"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="82"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="82"/>
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="35"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="70"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="70"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="84"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="84"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="34"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="66"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="66"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="66"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="82"/>
-      <c r="W42" s="83"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="82"/>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="35"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="73"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="73"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="88"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="88"/>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A33:Y43" name="Questionnaire"/>
-    <protectedRange sqref="A6:Q29" name="Contact Fields"/>
-    <protectedRange sqref="S3:Y43" name="customEntity"/>
+    <protectedRange sqref="A1" name="title"/>
+    <protectedRange sqref="A31:Y41" name="Questionnaire"/>
+    <protectedRange sqref="A7:G7 A8:F8 A9:G28 J7:K7 J8 J9:K28 N7:O28" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y6 V7:Y9 S10:Y41" name="customEntity"/>
+    <protectedRange sqref="G8 K8" name="Contact Fields_2"/>
+    <protectedRange sqref="H7:I28" name="Contact Fields_5"/>
+    <protectedRange sqref="L7:M28" name="Contact Fields_6"/>
+    <protectedRange sqref="P7:Q28" name="Contact Fields_7"/>
+    <protectedRange sqref="S7:U9" name="customEntity_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A29:AG30 A7:AG25">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A8:F8 A9:G25 A26:F26 A29:AG29 A27:G28 N25:O28 N24 J8 J9:K28 N8:O23 R10:AG28 R8:R9 V8:AG9">
+    <cfRule type="expression" dxfId="41" priority="61">
+      <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="40" priority="62">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W33:Y43">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C33="x"</formula>
+  <conditionalFormatting sqref="W31:Y41">
+    <cfRule type="expression" dxfId="39" priority="59">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D33="x"</formula>
+    <cfRule type="expression" dxfId="38" priority="60">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S33:U43">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C33="x"</formula>
+  <conditionalFormatting sqref="S31:U41">
+    <cfRule type="expression" dxfId="37" priority="57">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D33="x"</formula>
+    <cfRule type="expression" dxfId="36" priority="58">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O33:Q43">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C33="x"</formula>
+  <conditionalFormatting sqref="O31:Q41">
+    <cfRule type="expression" dxfId="35" priority="55">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D33="x"</formula>
+    <cfRule type="expression" dxfId="34" priority="56">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:M43">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C33="x"</formula>
+  <conditionalFormatting sqref="K31:M41">
+    <cfRule type="expression" dxfId="33" priority="53">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D33="x"</formula>
+    <cfRule type="expression" dxfId="32" priority="54">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:I43">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C33="x"</formula>
+  <conditionalFormatting sqref="G31:I41">
+    <cfRule type="expression" dxfId="31" priority="51">
+      <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D33="x"</formula>
+    <cfRule type="expression" dxfId="30" priority="52">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:F28 J26:AG28">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="expression" dxfId="29" priority="47">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="28" priority="48">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:I28">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="27" priority="39">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="40">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I25 H27:I28">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:I26">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M23 L25:M28">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:M8">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:M24">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q8 P10:Q23 P25:Q28">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:Q9">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:Q9">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24:Q24">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:U9">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y33:Y43 I33:I43 M33:M43 Q33:Q43 U33:U43 M6:M29 Q6:Q29 U6:U29 Y6:Y29 I6:I29" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31:Y41 I31:I41 M31:M41 Q31:Q41 U31:U41 M7:M28 I7:I28 Q7:Q28 Y7:Y28 U7:U28" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
       <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D29" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3737,21 +4156,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3960,32 +4364,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4002,4 +4396,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2EF092-A2DB-479C-8478-202E4A449F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236425D8-6572-472A-9C9E-17E5322E8A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{0B90DC20-DD93-4355-8D36-62CE3B91A928}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{B1AD9B81-DF3D-41BE-B8F1-16E53B619BE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="91">
   <si>
@@ -193,12 +231,6 @@
     <t>CRM System: SAGE</t>
   </si>
   <si>
-    <t>SAGE: Custom Entity</t>
-  </si>
-  <si>
-    <t>SAGE: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>this is a note</t>
   </si>
   <si>
@@ -338,13 +370,19 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>SAGE: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SAGE: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +464,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -465,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -1221,28 +1266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF6FEB6F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF6FEB6F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FF6FEB6F"/>
@@ -1439,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1560,52 +1583,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1624,6 +1624,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,12 +2668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,42 +2735,42 @@
         <v>36</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
+      <c r="G4" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="O4" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="S4" s="92" t="s">
+      <c r="K4" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="W4" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="O4" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="S4" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="100"/>
+      <c r="U4" s="101"/>
+      <c r="W4" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="101"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="86" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="89" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="56" t="s">
@@ -2827,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
@@ -2836,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I8" s="60" t="s">
         <v>23</v>
@@ -2846,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M8" s="63" t="s">
         <v>23</v>
@@ -2854,16 +2875,16 @@
       <c r="O8" s="62"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="63"/>
-      <c r="S8" s="79" t="s">
+      <c r="S8" s="77" t="s">
         <v>24</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="78"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="77"/>
+      <c r="U8" s="76"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2874,20 +2895,20 @@
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
       <c r="G9" s="62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="63" t="s">
         <v>22</v>
@@ -2895,16 +2916,16 @@
       <c r="O9" s="62"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="61"/>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="77" t="s">
         <v>26</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="78"/>
-      <c r="W9" s="79"/>
+      <c r="U9" s="76"/>
+      <c r="W9" s="77"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="78"/>
+      <c r="Y9" s="76"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2915,20 +2936,20 @@
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
       <c r="G10" s="62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M10" s="63" t="s">
         <v>22</v>
@@ -2936,12 +2957,12 @@
       <c r="O10" s="62"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="63"/>
-      <c r="S10" s="79"/>
+      <c r="S10" s="77"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="78"/>
-      <c r="W10" s="79"/>
+      <c r="U10" s="76"/>
+      <c r="W10" s="77"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="78"/>
+      <c r="Y10" s="76"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2955,7 +2976,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="63" t="s">
         <v>22</v>
@@ -2965,7 +2986,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M11" s="63" t="s">
         <v>22</v>
@@ -2973,12 +2994,12 @@
       <c r="O11" s="62"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="63"/>
-      <c r="S11" s="79"/>
+      <c r="S11" s="77"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="U11" s="76"/>
+      <c r="W11" s="77"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="78"/>
+      <c r="Y11" s="76"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2989,10 +3010,10 @@
       <c r="D12" s="25"/>
       <c r="E12" s="37"/>
       <c r="G12" s="62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I12" s="63" t="s">
         <v>22</v>
@@ -3002,20 +3023,20 @@
       <c r="L12" s="5"/>
       <c r="M12" s="63"/>
       <c r="O12" s="62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="79"/>
+      <c r="S12" s="77"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="78"/>
-      <c r="W12" s="79"/>
+      <c r="U12" s="76"/>
+      <c r="W12" s="77"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="78"/>
+      <c r="Y12" s="76"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3029,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I13" s="60" t="s">
         <v>22</v>
@@ -3039,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M13" s="60" t="s">
         <v>22</v>
@@ -3048,17 +3069,17 @@
         <v>6</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="79"/>
+      <c r="S13" s="77"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="78"/>
-      <c r="W13" s="79"/>
+      <c r="U13" s="76"/>
+      <c r="W13" s="77"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="78"/>
+      <c r="Y13" s="76"/>
     </row>
     <row r="14" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
@@ -3072,7 +3093,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" s="65" t="s">
         <v>22</v>
@@ -3082,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M14" s="65" t="s">
         <v>22</v>
@@ -3091,17 +3112,17 @@
         <v>7</v>
       </c>
       <c r="P14" s="51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="78"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="81"/>
-      <c r="W14" s="80"/>
+      <c r="U14" s="79"/>
+      <c r="W14" s="78"/>
       <c r="X14" s="51"/>
-      <c r="Y14" s="81"/>
+      <c r="Y14" s="79"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -3115,7 +3136,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="67" t="s">
         <v>22</v>
@@ -3125,7 +3146,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M15" s="67" t="s">
         <v>22</v>
@@ -3134,17 +3155,17 @@
         <v>8</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="79"/>
+      <c r="S15" s="77"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="78"/>
-      <c r="W15" s="79"/>
+      <c r="U15" s="76"/>
+      <c r="W15" s="77"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="78"/>
+      <c r="Y15" s="76"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3155,39 +3176,39 @@
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
       <c r="G16" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="63" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M16" s="63" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="79"/>
+      <c r="S16" s="77"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="78"/>
-      <c r="W16" s="79"/>
+      <c r="U16" s="76"/>
+      <c r="W16" s="77"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="78"/>
+      <c r="Y16" s="76"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -3201,7 +3222,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="63" t="s">
         <v>22</v>
@@ -3211,7 +3232,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M17" s="63" t="s">
         <v>22</v>
@@ -3220,17 +3241,17 @@
         <v>9</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="79"/>
+      <c r="S17" s="77"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="78"/>
-      <c r="W17" s="79"/>
+      <c r="U17" s="76"/>
+      <c r="W17" s="77"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="78"/>
+      <c r="Y17" s="76"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -3244,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="63" t="s">
         <v>22</v>
@@ -3259,17 +3280,17 @@
         <v>10</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="79"/>
+      <c r="S18" s="77"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="78"/>
-      <c r="W18" s="79"/>
+      <c r="U18" s="76"/>
+      <c r="W18" s="77"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="78"/>
+      <c r="Y18" s="76"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -3289,12 +3310,12 @@
       <c r="O19" s="62"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="63"/>
-      <c r="S19" s="79"/>
+      <c r="S19" s="77"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="78"/>
-      <c r="W19" s="79"/>
+      <c r="U19" s="76"/>
+      <c r="W19" s="77"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="78"/>
+      <c r="Y19" s="76"/>
     </row>
     <row r="20" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
@@ -3308,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I20" s="65" t="s">
         <v>22</v>
@@ -3320,12 +3341,12 @@
       <c r="O20" s="64"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="65"/>
-      <c r="S20" s="80"/>
+      <c r="S20" s="78"/>
       <c r="T20" s="51"/>
-      <c r="U20" s="81"/>
-      <c r="W20" s="80"/>
+      <c r="U20" s="79"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="81"/>
+      <c r="Y20" s="79"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -3339,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I21" s="63" t="s">
         <v>22</v>
@@ -3349,26 +3370,26 @@
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M21" s="63" t="s">
         <v>22</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="79"/>
+      <c r="S21" s="77"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="78"/>
-      <c r="W21" s="79"/>
+      <c r="U21" s="76"/>
+      <c r="W21" s="77"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="78"/>
+      <c r="Y21" s="76"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3382,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" s="60" t="s">
         <v>22</v>
@@ -3392,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M22" s="60" t="s">
         <v>22</v>
@@ -3401,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="60" t="s">
         <v>22</v>
@@ -3415,17 +3436,17 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
       <c r="G23" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="60" t="s">
         <v>22</v>
@@ -3446,17 +3467,17 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="37"/>
       <c r="G24" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="60" t="s">
         <v>23</v>
@@ -3464,16 +3485,16 @@
       <c r="J24" s="1"/>
       <c r="K24" s="59"/>
       <c r="L24" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M24" s="60" t="s">
         <v>23</v>
       </c>
       <c r="O24" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="60" t="s">
         <v>23</v>
@@ -3487,17 +3508,17 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="37"/>
       <c r="G25" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="60" t="s">
         <v>23</v>
@@ -3532,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M26" s="60" t="s">
         <v>22</v>
@@ -3549,17 +3570,17 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="19"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
       <c r="G27" s="59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="60" t="s">
         <v>23</v>
@@ -3569,10 +3590,10 @@
       <c r="L27" s="6"/>
       <c r="M27" s="60"/>
       <c r="O27" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="60" t="s">
         <v>23</v>
@@ -3600,12 +3621,12 @@
       <c r="O28" s="68"/>
       <c r="P28" s="69"/>
       <c r="Q28" s="70"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="84"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="84"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="82"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="8"/>
@@ -3626,7 +3647,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3702,22 +3723,22 @@
       <c r="O31" s="62"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="63"/>
-      <c r="S31" s="79"/>
+      <c r="S31" s="77"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="78"/>
-      <c r="W31" s="79"/>
+      <c r="U31" s="76"/>
+      <c r="W31" s="77"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="78"/>
+      <c r="Y31" s="76"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="34"/>
       <c r="G32" s="62"/>
       <c r="H32" s="5"/>
@@ -3728,22 +3749,22 @@
       <c r="O32" s="62"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="63"/>
-      <c r="S32" s="79"/>
+      <c r="S32" s="77"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="78"/>
-      <c r="W32" s="79"/>
+      <c r="U32" s="76"/>
+      <c r="W32" s="77"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="78"/>
+      <c r="Y32" s="76"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="34"/>
       <c r="G33" s="62"/>
       <c r="H33" s="5"/>
@@ -3754,22 +3775,22 @@
       <c r="O33" s="62"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="63"/>
-      <c r="S33" s="79"/>
+      <c r="S33" s="77"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="78"/>
-      <c r="W33" s="79"/>
+      <c r="U33" s="76"/>
+      <c r="W33" s="77"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="78"/>
+      <c r="Y33" s="76"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="101"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="34"/>
       <c r="G34" s="62"/>
       <c r="H34" s="5"/>
@@ -3780,18 +3801,18 @@
       <c r="O34" s="62"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="63"/>
-      <c r="S34" s="79"/>
+      <c r="S34" s="77"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="78"/>
-      <c r="W34" s="79"/>
+      <c r="U34" s="76"/>
+      <c r="W34" s="77"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="78"/>
+      <c r="Y34" s="76"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="34"/>
       <c r="G35" s="62"/>
       <c r="H35" s="5"/>
@@ -3802,12 +3823,12 @@
       <c r="O35" s="62"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="63"/>
-      <c r="S35" s="79"/>
+      <c r="S35" s="77"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="78"/>
-      <c r="W35" s="79"/>
+      <c r="U35" s="76"/>
+      <c r="W35" s="77"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="78"/>
+      <c r="Y35" s="76"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
@@ -3824,18 +3845,18 @@
       <c r="O36" s="62"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="63"/>
-      <c r="S36" s="79"/>
+      <c r="S36" s="77"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="78"/>
-      <c r="W36" s="79"/>
+      <c r="U36" s="76"/>
+      <c r="W36" s="77"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="78"/>
+      <c r="Y36" s="76"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="34"/>
       <c r="G37" s="62"/>
       <c r="H37" s="5"/>
@@ -3846,18 +3867,18 @@
       <c r="O37" s="62"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="63"/>
-      <c r="S37" s="79"/>
+      <c r="S37" s="77"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="78"/>
-      <c r="W37" s="79"/>
+      <c r="U37" s="76"/>
+      <c r="W37" s="77"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="78"/>
+      <c r="Y37" s="76"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="34"/>
       <c r="G38" s="62"/>
       <c r="H38" s="5"/>
@@ -3868,18 +3889,18 @@
       <c r="O38" s="62"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="63"/>
-      <c r="S38" s="79"/>
+      <c r="S38" s="77"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="78"/>
-      <c r="W38" s="79"/>
+      <c r="U38" s="76"/>
+      <c r="W38" s="77"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="78"/>
+      <c r="Y38" s="76"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="34"/>
       <c r="G39" s="62"/>
       <c r="H39" s="5"/>
@@ -3890,18 +3911,18 @@
       <c r="O39" s="62"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="63"/>
-      <c r="S39" s="79"/>
+      <c r="S39" s="77"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="78"/>
-      <c r="W39" s="79"/>
+      <c r="U39" s="76"/>
+      <c r="W39" s="77"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="78"/>
+      <c r="Y39" s="76"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="34"/>
       <c r="G40" s="62"/>
       <c r="H40" s="5"/>
@@ -3912,18 +3933,18 @@
       <c r="O40" s="62"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="63"/>
-      <c r="S40" s="79"/>
+      <c r="S40" s="77"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="78"/>
-      <c r="W40" s="79"/>
+      <c r="U40" s="76"/>
+      <c r="W40" s="77"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="78"/>
+      <c r="Y40" s="76"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="104"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="35"/>
       <c r="G41" s="68"/>
       <c r="H41" s="69"/>
@@ -3934,12 +3955,12 @@
       <c r="O41" s="68"/>
       <c r="P41" s="69"/>
       <c r="Q41" s="70"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="84"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="84"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="82"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="82"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3948,7 +3969,7 @@
     <protectedRange sqref="A1" name="title"/>
     <protectedRange sqref="A31:Y41" name="Questionnaire"/>
     <protectedRange sqref="A7:G7 A8:F8 A9:G28 J7:K7 J8 J9:K28 N7:O28" name="Contact Fields"/>
-    <protectedRange sqref="S4:Y6 V7:Y9 S10:Y41" name="customEntity"/>
+    <protectedRange sqref="S4:Y6 S10:Y41 V7:Y9" name="customEntity"/>
     <protectedRange sqref="G8 K8" name="Contact Fields_2"/>
     <protectedRange sqref="H7:I28" name="Contact Fields_5"/>
     <protectedRange sqref="L7:M28" name="Contact Fields_6"/>
@@ -3956,21 +3977,21 @@
     <protectedRange sqref="S7:U9" name="customEntity_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A9:G25 A26:F26 A29:AG29 A27:G28 N25:O28 N24 J8 J9:K28 N8:O23 R10:AG28 R8:R9 V8:AG9">
@@ -4142,20 +4163,36 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31:Y41 I31:I41 M31:M41 Q31:Q41 U31:U41 M7:M28 I7:I28 Q7:Q28 Y7:Y28 U7:U28" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 I31:I41 M31:M41 Q31:Q41 U31:U41 Y31:Y41" xr:uid="{CBFE5E16-654F-416D-801F-A1CA16FA15AD}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4364,22 +4401,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4396,29 +4443,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236425D8-6572-472A-9C9E-17E5322E8A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D17711-D928-40F9-9711-5021B30175D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -159,39 +159,6 @@
     <t>custom2__c</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Please insert template name]</t>
-    </r>
-  </si>
-  <si>
     <t>Campaign ID</t>
   </si>
   <si>
@@ -376,13 +343,16 @@
   </si>
   <si>
     <t>SAGE: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,13 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -445,13 +408,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1478,8 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1489,22 +1444,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1516,44 +1471,44 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1590,13 +1545,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1606,33 +1561,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1646,6 +1574,34 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2673,7 +2629,7 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,8 +2654,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>28</v>
+      <c r="A1" s="102" t="s">
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2710,7 +2666,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2720,913 +2676,913 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="G3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="G4" s="102" t="s">
+      <c r="E4" s="31"/>
+      <c r="G4" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="O4" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="O4" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="S4" s="99" t="s">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="S4" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
+      <c r="W4" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="100"/>
-      <c r="U4" s="101"/>
-      <c r="W4" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="101"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="91"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="56" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="72" t="s">
+      <c r="T6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="71" t="s">
+      <c r="W6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="72" t="s">
+      <c r="X6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="73" t="s">
+      <c r="Y6" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="36"/>
-      <c r="G7" s="59"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="35"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="60"/>
-      <c r="O7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="60"/>
-      <c r="S7" s="74"/>
+      <c r="Q7" s="59"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="75"/>
-      <c r="W7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="W7" s="73"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="75"/>
+      <c r="Y7" s="74"/>
     </row>
-    <row r="8" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="G8" s="59" t="s">
+      <c r="B8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="G8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="59" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="63"/>
-      <c r="S8" s="77" t="s">
+      <c r="Q8" s="62"/>
+      <c r="S8" s="76" t="s">
         <v>24</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="76"/>
-      <c r="W8" s="77"/>
+      <c r="U8" s="75"/>
+      <c r="W8" s="76"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="76"/>
+      <c r="Y8" s="75"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="37"/>
-      <c r="G9" s="62" t="s">
-        <v>79</v>
+      <c r="B9" s="17"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="36"/>
+      <c r="G9" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="62" t="s">
-        <v>79</v>
+      <c r="K9" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="61"/>
-      <c r="S9" s="77" t="s">
+      <c r="O9" s="61"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="60"/>
+      <c r="S9" s="76" t="s">
         <v>26</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="76"/>
-      <c r="W9" s="77"/>
+      <c r="U9" s="75"/>
+      <c r="W9" s="76"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="76"/>
+      <c r="Y9" s="75"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="37"/>
-      <c r="G10" s="62" t="s">
-        <v>80</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="36"/>
+      <c r="G10" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="62" t="s">
-        <v>80</v>
+      <c r="K10" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="63"/>
-      <c r="S10" s="77"/>
+      <c r="Q10" s="62"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="76"/>
-      <c r="W10" s="77"/>
+      <c r="U10" s="75"/>
+      <c r="W10" s="76"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="76"/>
+      <c r="Y10" s="75"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="37"/>
-      <c r="G11" s="62" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="36"/>
+      <c r="G11" s="61" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="61" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="63"/>
-      <c r="S11" s="77"/>
+      <c r="Q11" s="62"/>
+      <c r="S11" s="76"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="76"/>
-      <c r="W11" s="77"/>
+      <c r="U11" s="75"/>
+      <c r="W11" s="76"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="76"/>
+      <c r="Y11" s="75"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="37"/>
-      <c r="G12" s="62" t="s">
-        <v>81</v>
+      <c r="B12" s="17"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="36"/>
+      <c r="G12" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="62"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="63"/>
-      <c r="O12" s="62" t="s">
-        <v>69</v>
+      <c r="M12" s="62"/>
+      <c r="O12" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="77"/>
+      <c r="S12" s="76"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="76"/>
-      <c r="W12" s="77"/>
+      <c r="U12" s="75"/>
+      <c r="W12" s="76"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="76"/>
+      <c r="Y12" s="75"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="37"/>
-      <c r="G13" s="59" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="36"/>
+      <c r="G13" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="76"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="75"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="75"/>
+    </row>
+    <row r="14" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="G14" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="60" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="60" t="s">
+      <c r="O14" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="77"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="76"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="76"/>
-    </row>
-    <row r="14" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" s="78"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="79"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="79"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="78"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="78"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="37"/>
-      <c r="G15" s="66" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="36"/>
+      <c r="G15" s="65" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="66" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="65" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="66" t="s">
+      <c r="O15" s="65" t="s">
         <v>8</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="77"/>
+      <c r="S15" s="76"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="76"/>
-      <c r="W15" s="77"/>
+      <c r="U15" s="75"/>
+      <c r="W15" s="76"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="76"/>
+      <c r="Y15" s="75"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="37"/>
-      <c r="G16" s="62" t="s">
-        <v>82</v>
+      <c r="B16" s="17"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="36"/>
+      <c r="G16" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="62" t="s">
-        <v>82</v>
+      <c r="K16" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="62" t="s">
-        <v>82</v>
+      <c r="O16" s="61" t="s">
+        <v>81</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="77"/>
+      <c r="S16" s="76"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="76"/>
-      <c r="W16" s="77"/>
+      <c r="U16" s="75"/>
+      <c r="W16" s="76"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="76"/>
+      <c r="Y16" s="75"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="62" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="36"/>
+      <c r="G17" s="61" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="61" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="62" t="s">
+      <c r="O17" s="61" t="s">
         <v>9</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="77"/>
+      <c r="S17" s="76"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="76"/>
-      <c r="W17" s="77"/>
+      <c r="U17" s="75"/>
+      <c r="W17" s="76"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="76"/>
+      <c r="Y17" s="75"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="37"/>
-      <c r="G18" s="62" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="36"/>
+      <c r="G18" s="61" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="62" t="s">
+      <c r="K18" s="61" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="5"/>
-      <c r="M18" s="63"/>
-      <c r="O18" s="62" t="s">
+      <c r="M18" s="62"/>
+      <c r="O18" s="61" t="s">
         <v>10</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="77"/>
+      <c r="S18" s="76"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="76"/>
-      <c r="W18" s="77"/>
+      <c r="U18" s="75"/>
+      <c r="W18" s="76"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="76"/>
+      <c r="Y18" s="75"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="37"/>
-      <c r="G19" s="62"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="36"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="63"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="61"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="63"/>
-      <c r="O19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="63"/>
-      <c r="S19" s="77"/>
+      <c r="Q19" s="62"/>
+      <c r="S19" s="76"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="76"/>
-      <c r="W19" s="77"/>
+      <c r="U19" s="75"/>
+      <c r="W19" s="76"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="76"/>
+      <c r="Y19" s="75"/>
     </row>
-    <row r="20" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="G20" s="64" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="G20" s="63" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="65"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="65"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="79"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="79"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="64"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="64"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="78"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="78"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="37"/>
-      <c r="G21" s="62" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="36"/>
+      <c r="G21" s="61" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="61" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="62" t="s">
-        <v>87</v>
+      <c r="O21" s="61" t="s">
+        <v>86</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="77"/>
+      <c r="S21" s="76"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="76"/>
-      <c r="W21" s="77"/>
+      <c r="U21" s="75"/>
+      <c r="W21" s="76"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="76"/>
+      <c r="Y21" s="75"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="37"/>
-      <c r="G22" s="59" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="36"/>
+      <c r="G22" s="58" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="58" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="59" t="s">
+      <c r="O22" s="58" t="s">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q22" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="S22" s="74"/>
+      <c r="S22" s="73"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="75"/>
-      <c r="W22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="W22" s="73"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="75"/>
+      <c r="Y22" s="74"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="36"/>
+      <c r="G23" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="37"/>
-      <c r="G23" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="59"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="60"/>
-      <c r="O23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="60"/>
-      <c r="S23" s="74"/>
+      <c r="Q23" s="59"/>
+      <c r="S23" s="73"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="75"/>
-      <c r="W23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="W23" s="73"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="75"/>
+      <c r="Y23" s="74"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="36"/>
+      <c r="G24" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="37"/>
-      <c r="G24" s="59" t="s">
+      <c r="I24" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="60" t="s">
+      <c r="M24" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="60" t="s">
+      <c r="O24" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="74"/>
+      <c r="S24" s="73"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="75"/>
-      <c r="W24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="W24" s="73"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="75"/>
+      <c r="Y24" s="74"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="36"/>
+      <c r="G25" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="37"/>
-      <c r="G25" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="59" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="59"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="60"/>
-      <c r="O25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="O25" s="58"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="60"/>
-      <c r="S25" s="74"/>
+      <c r="Q25" s="59"/>
+      <c r="S25" s="73"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="75"/>
-      <c r="W25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="W25" s="73"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="75"/>
+      <c r="Y25" s="74"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="37"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="36"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="59" t="s">
+      <c r="K26" s="58" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="59"/>
+      <c r="O26" s="58"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="60"/>
-      <c r="S26" s="74"/>
+      <c r="Q26" s="59"/>
+      <c r="S26" s="73"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="75"/>
-      <c r="W26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="W26" s="73"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="75"/>
+      <c r="Y26" s="74"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="G27" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="G27" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="59" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="59"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="60"/>
-      <c r="O27" s="59" t="s">
+      <c r="M27" s="59"/>
+      <c r="O27" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q27" s="60" t="s">
+      <c r="Q27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="S27" s="74"/>
+      <c r="S27" s="73"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="75"/>
-      <c r="W27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="W27" s="73"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="75"/>
+      <c r="Y27" s="74"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="38"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="37"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="70"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="82"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="82"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="69"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="81"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="8"/>
@@ -3639,328 +3595,328 @@
       <c r="O29" s="8"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="9"/>
-      <c r="S29" s="54"/>
+      <c r="S29" s="53"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="55"/>
+      <c r="U29" s="54"/>
       <c r="W29" s="8"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="86" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="57" t="s">
+      <c r="L30" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="58" t="s">
+      <c r="M30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="56" t="s">
+      <c r="O30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="57" t="s">
+      <c r="P30" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="58" t="s">
+      <c r="Q30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="71" t="s">
+      <c r="S30" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="T30" s="72" t="s">
+      <c r="T30" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="U30" s="73" t="s">
+      <c r="U30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="W30" s="71" t="s">
+      <c r="W30" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="X30" s="72" t="s">
+      <c r="X30" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Y30" s="73" t="s">
+      <c r="Y30" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="33"/>
-      <c r="G31" s="62"/>
+      <c r="A31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="32"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="63"/>
-      <c r="K31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="63"/>
-      <c r="O31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="63"/>
-      <c r="S31" s="77"/>
+      <c r="Q31" s="62"/>
+      <c r="S31" s="76"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="76"/>
-      <c r="W31" s="77"/>
+      <c r="U31" s="75"/>
+      <c r="W31" s="76"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="76"/>
+      <c r="Y31" s="75"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="34"/>
-      <c r="G32" s="62"/>
+      <c r="A32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="33"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="63"/>
-      <c r="K32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="63"/>
-      <c r="O32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="63"/>
-      <c r="S32" s="77"/>
+      <c r="Q32" s="62"/>
+      <c r="S32" s="76"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="76"/>
-      <c r="W32" s="77"/>
+      <c r="U32" s="75"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="76"/>
+      <c r="Y32" s="75"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="34"/>
-      <c r="G33" s="62"/>
+      <c r="A33" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="33"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="63"/>
-      <c r="K33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="K33" s="61"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="63"/>
-      <c r="O33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="63"/>
-      <c r="S33" s="77"/>
+      <c r="Q33" s="62"/>
+      <c r="S33" s="76"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="76"/>
-      <c r="W33" s="77"/>
+      <c r="U33" s="75"/>
+      <c r="W33" s="76"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="76"/>
+      <c r="Y33" s="75"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="34"/>
-      <c r="G34" s="62"/>
+      <c r="A34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="33"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="63"/>
-      <c r="K34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="K34" s="61"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="63"/>
-      <c r="O34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="63"/>
-      <c r="S34" s="77"/>
+      <c r="Q34" s="62"/>
+      <c r="S34" s="76"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="76"/>
-      <c r="W34" s="77"/>
+      <c r="U34" s="75"/>
+      <c r="W34" s="76"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="76"/>
+      <c r="Y34" s="75"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="34"/>
-      <c r="G35" s="62"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="33"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="63"/>
-      <c r="K35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="K35" s="61"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="63"/>
-      <c r="O35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="O35" s="61"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="63"/>
-      <c r="S35" s="77"/>
+      <c r="Q35" s="62"/>
+      <c r="S35" s="76"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="76"/>
-      <c r="W35" s="77"/>
+      <c r="U35" s="75"/>
+      <c r="W35" s="76"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="76"/>
+      <c r="Y35" s="75"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="34"/>
-      <c r="G36" s="62"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="33"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="63"/>
-      <c r="K36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="K36" s="61"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="63"/>
-      <c r="O36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="O36" s="61"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="63"/>
-      <c r="S36" s="77"/>
+      <c r="Q36" s="62"/>
+      <c r="S36" s="76"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="76"/>
-      <c r="W36" s="77"/>
+      <c r="U36" s="75"/>
+      <c r="W36" s="76"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="76"/>
+      <c r="Y36" s="75"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="62"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="33"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="63"/>
-      <c r="K37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="K37" s="61"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="63"/>
-      <c r="O37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="O37" s="61"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="63"/>
-      <c r="S37" s="77"/>
+      <c r="Q37" s="62"/>
+      <c r="S37" s="76"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="76"/>
-      <c r="W37" s="77"/>
+      <c r="U37" s="75"/>
+      <c r="W37" s="76"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="76"/>
+      <c r="Y37" s="75"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="62"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="33"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="63"/>
-      <c r="K38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="63"/>
-      <c r="O38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="O38" s="61"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="63"/>
-      <c r="S38" s="77"/>
+      <c r="Q38" s="62"/>
+      <c r="S38" s="76"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="76"/>
-      <c r="W38" s="77"/>
+      <c r="U38" s="75"/>
+      <c r="W38" s="76"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="76"/>
+      <c r="Y38" s="75"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="34"/>
-      <c r="G39" s="62"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="33"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="63"/>
-      <c r="K39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="K39" s="61"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="63"/>
-      <c r="O39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="O39" s="61"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="63"/>
-      <c r="S39" s="77"/>
+      <c r="Q39" s="62"/>
+      <c r="S39" s="76"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="76"/>
-      <c r="W39" s="77"/>
+      <c r="U39" s="75"/>
+      <c r="W39" s="76"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="76"/>
+      <c r="Y39" s="75"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="34"/>
-      <c r="G40" s="62"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="33"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="63"/>
-      <c r="K40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="K40" s="61"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="63"/>
-      <c r="O40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="O40" s="61"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="63"/>
-      <c r="S40" s="77"/>
+      <c r="Q40" s="62"/>
+      <c r="S40" s="76"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="76"/>
-      <c r="W40" s="77"/>
+      <c r="U40" s="75"/>
+      <c r="W40" s="76"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="76"/>
+      <c r="Y40" s="75"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="35"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="70"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="70"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="82"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="82"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="34"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="69"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="69"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="81"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="81"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3977,21 +3933,21 @@
     <protectedRange sqref="S7:U9" name="customEntity_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:F8 A9:G25 A26:F26 A29:AG29 A27:G28 N25:O28 N24 J8 J9:K28 N8:O23 R10:AG28 R8:R9 V8:AG9">
@@ -4178,21 +4134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4401,32 +4342,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4443,4 +4374,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2EF092-A2DB-479C-8478-202E4A449F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336495A4-9A4C-42AA-A40F-AE2B9F9C8133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$7:$D$28,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$I$7:$I$28,Specifications!$M$7:$M$28,Specifications!$Q$7:$Q$28,Specifications!$U$7:$U$28,Specifications!$Y$7:$Y$28,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$31:$I$41,Specifications!$M$31:$M$41,Specifications!$Q$31:$Q$41,Specifications!$U$31:$U$41,Specifications!$Y$31:$Y$41</definedName>
+    <definedName name="checkbox">Specifications!$C$6:$D$27,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$27,Specifications!$M$6:$M$27,Specifications!$Q$6:$Q$27,Specifications!$U$6:$U$27,Specifications!$Y$6:$Y$27,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$30:$I$40,Specifications!$M$30:$M$40,Specifications!$Q$30:$Q$40,Specifications!$U$30:$U$40,Specifications!$Y$30:$Y$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
   <si>
     <t>Website</t>
   </si>
@@ -119,39 +119,6 @@
   </si>
   <si>
     <t>custom2__c</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Template Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Please insert template name]</t>
-    </r>
   </si>
   <si>
     <t>Campaign ID</t>
@@ -344,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,13 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -407,13 +367,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -598,15 +551,6 @@
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -1221,28 +1165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF6FEB6F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF6FEB6F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FF6FEB6F"/>
@@ -1374,21 +1296,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00A376"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00A376"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00A376"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00A376"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color theme="0"/>
       </left>
       <right/>
@@ -1439,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1455,175 +1362,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2203,13 +2107,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2281,13 +2185,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2649,10 +2553,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,9 +2580,9 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>28</v>
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2687,1466 +2591,1457 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="G3" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="O3" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="S3" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="99"/>
+      <c r="U3" s="100"/>
+      <c r="W3" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="100"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="43"/>
-      <c r="K3" s="43"/>
+    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="72" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="G4" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="95" t="s">
+    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="35"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="59"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="59"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="74"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="74"/>
+    </row>
+    <row r="7" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="G7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="O4" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="S4" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="W4" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="X6" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="36"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="60"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="60"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="6"/>
+      <c r="I7" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="49"/>
+      <c r="K7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="61"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="62"/>
+      <c r="S7" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="U7" s="75"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="6"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="5"/>
       <c r="Y7" s="75"/>
     </row>
-    <row r="8" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="G8" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="6" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="36"/>
+      <c r="G8" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="59" t="s">
-        <v>3</v>
+      <c r="I8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="61" t="s">
+        <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="63"/>
-      <c r="S8" s="79" t="s">
-        <v>24</v>
+      <c r="M8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="61"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="60"/>
+      <c r="S8" s="76" t="s">
+        <v>26</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="U8" s="75"/>
       <c r="W8" s="76"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="77"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="75"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="37"/>
-      <c r="G9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="36"/>
+      <c r="G9" s="61" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="61" t="s">
         <v>81</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="61"/>
-      <c r="S9" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="78"/>
-      <c r="W9" s="79"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="62"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="75"/>
+      <c r="W9" s="76"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="78"/>
+      <c r="Y9" s="75"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="37"/>
-      <c r="G10" s="62" t="s">
-        <v>82</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="36"/>
+      <c r="G10" s="61" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="62" t="s">
-        <v>82</v>
+      <c r="K10" s="61" t="s">
+        <v>13</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="63"/>
-      <c r="S10" s="79"/>
+      <c r="Q10" s="62"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="78"/>
-      <c r="W10" s="79"/>
+      <c r="U10" s="75"/>
+      <c r="W10" s="76"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="78"/>
+      <c r="Y10" s="75"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="37"/>
-      <c r="G11" s="62" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="36"/>
+      <c r="G11" s="61" t="s">
+        <v>82</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="63" t="s">
+      <c r="K11" s="61"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="62"/>
+      <c r="O11" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="63"/>
-      <c r="S11" s="79"/>
+      <c r="S11" s="76"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="U11" s="75"/>
+      <c r="W11" s="76"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="78"/>
+      <c r="Y11" s="75"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
+      <c r="A12" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="18"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="37"/>
-      <c r="G12" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="36"/>
+      <c r="G12" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="63"/>
-      <c r="O12" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="63" t="s">
+      <c r="K12" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="79"/>
+      <c r="O12" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="76"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="78"/>
-      <c r="W12" s="79"/>
+      <c r="U12" s="75"/>
+      <c r="W12" s="76"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="78"/>
+      <c r="Y12" s="75"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="37"/>
-      <c r="G13" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6" t="s">
+    <row r="13" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="G13" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="60" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="60" t="s">
+      <c r="O13" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="79"/>
-      <c r="T13" s="5"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="50"/>
       <c r="U13" s="78"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="5"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="50"/>
       <c r="Y13" s="78"/>
     </row>
-    <row r="14" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="65" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="36"/>
+      <c r="G14" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="51" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="51" t="s">
+      <c r="O14" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="65" t="s">
+      <c r="Q14" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="80"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="81"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="81"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="75"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="75"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="37"/>
-      <c r="G15" s="66" t="s">
-        <v>8</v>
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="36"/>
+      <c r="G15" s="61" t="s">
+        <v>83</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="O15" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="67" t="s">
+      <c r="Q15" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="79"/>
+      <c r="S15" s="76"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="78"/>
-      <c r="W15" s="79"/>
+      <c r="U15" s="75"/>
+      <c r="W15" s="76"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="78"/>
+      <c r="Y15" s="75"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="37"/>
-      <c r="G16" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="36"/>
+      <c r="G16" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="62" t="s">
-        <v>84</v>
+      <c r="K16" s="61" t="s">
+        <v>9</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="62" t="s">
-        <v>84</v>
+      <c r="O16" s="61" t="s">
+        <v>9</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="63" t="s">
+      <c r="Q16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="79"/>
+      <c r="S16" s="76"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="78"/>
-      <c r="W16" s="79"/>
+      <c r="U16" s="75"/>
+      <c r="W16" s="76"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="78"/>
+      <c r="Y16" s="75"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="62" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="36"/>
+      <c r="G17" s="61" t="s">
+        <v>10</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="63" t="s">
+      <c r="K17" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="62"/>
+      <c r="O17" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="79"/>
+      <c r="S17" s="76"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="78"/>
-      <c r="W17" s="79"/>
+      <c r="U17" s="75"/>
+      <c r="W17" s="76"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="78"/>
+      <c r="Y17" s="75"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="37"/>
-      <c r="G18" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="36"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="62"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="62"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="75"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="75"/>
+    </row>
+    <row r="19" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="G19" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I19" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="63"/>
-      <c r="O18" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="79"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="78"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="78"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="37"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="63"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="63"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="5"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="64"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="64"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="50"/>
       <c r="U19" s="78"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="5"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="50"/>
       <c r="Y19" s="78"/>
     </row>
-    <row r="20" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="G20" s="64" t="s">
-        <v>2</v>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="36"/>
+      <c r="G20" s="61" t="s">
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="65"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="65"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="81"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="81"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="76"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="75"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="75"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="37"/>
-      <c r="G21" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="63" t="s">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="36"/>
+      <c r="G21" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="63" t="s">
+      <c r="M21" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="O21" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q21" s="63" t="s">
+      <c r="Q21" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="79"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="78"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="78"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="74"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="74"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="37"/>
-      <c r="G22" s="59" t="s">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="36"/>
+      <c r="G22" s="58" t="s">
+        <v>71</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="59" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="74"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="59"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="59"/>
+      <c r="S22" s="73"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="75"/>
-      <c r="W22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="W22" s="73"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="75"/>
+      <c r="Y22" s="74"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="37"/>
-      <c r="G23" s="59" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="36"/>
+      <c r="G23" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="60"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="60"/>
-      <c r="S23" s="74"/>
+      <c r="P23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="73"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="75"/>
-      <c r="W23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="W23" s="73"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="75"/>
+      <c r="Y23" s="74"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="37"/>
-      <c r="G24" s="59" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="36"/>
+      <c r="G24" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="59" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="74"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="59"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="59"/>
+      <c r="S24" s="73"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="75"/>
-      <c r="W24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="W24" s="73"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="75"/>
+      <c r="Y24" s="74"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="37"/>
-      <c r="G25" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="36"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="60"/>
-      <c r="O25" s="59"/>
+      <c r="M25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="58"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="60"/>
-      <c r="S25" s="74"/>
+      <c r="Q25" s="59"/>
+      <c r="S25" s="73"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="75"/>
-      <c r="W25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="W25" s="73"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="75"/>
+      <c r="Y25" s="74"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="37"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="60"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
+      <c r="G26" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>23</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="58"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="59"/>
+      <c r="O26" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="M26" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="59"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="60"/>
-      <c r="S26" s="74"/>
+      <c r="P26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="73"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="75"/>
-      <c r="W26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="W26" s="73"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="75"/>
+      <c r="Y26" s="74"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="G27" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>23</v>
-      </c>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="37"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="60"/>
-      <c r="O27" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="74"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="75"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="75"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="81"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="81"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="38"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+    <row r="28" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="8"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="70"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="84"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="84"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="9"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="9"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="54"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="8"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="9"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="9"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="55"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="9"/>
+    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="72" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="S30" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="T30" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="U30" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="W30" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="X30" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y30" s="73" t="s">
-        <v>17</v>
-      </c>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="32"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="62"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="62"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="62"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="75"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="75"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
+      <c r="B31" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="33"/>
-      <c r="G31" s="62"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="63"/>
-      <c r="K31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="61"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="63"/>
-      <c r="O31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="63"/>
-      <c r="S31" s="79"/>
+      <c r="Q31" s="62"/>
+      <c r="S31" s="76"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="78"/>
-      <c r="W31" s="79"/>
+      <c r="U31" s="75"/>
+      <c r="W31" s="76"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="78"/>
+      <c r="Y31" s="75"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="99" t="s">
+      <c r="A32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="34"/>
-      <c r="G32" s="62"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="33"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="63"/>
-      <c r="K32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="63"/>
-      <c r="O32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="O32" s="61"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="63"/>
-      <c r="S32" s="79"/>
+      <c r="Q32" s="62"/>
+      <c r="S32" s="76"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="78"/>
-      <c r="W32" s="79"/>
+      <c r="U32" s="75"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="78"/>
+      <c r="Y32" s="75"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="99" t="s">
+      <c r="A33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="34"/>
-      <c r="G33" s="62"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="33"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="63"/>
-      <c r="K33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="K33" s="61"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="63"/>
-      <c r="O33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="63"/>
-      <c r="S33" s="79"/>
+      <c r="Q33" s="62"/>
+      <c r="S33" s="76"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="78"/>
-      <c r="W33" s="79"/>
+      <c r="U33" s="75"/>
+      <c r="W33" s="76"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="78"/>
+      <c r="Y33" s="75"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="34"/>
-      <c r="G34" s="62"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="33"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="63"/>
-      <c r="K34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="K34" s="61"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="63"/>
-      <c r="O34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="63"/>
-      <c r="S34" s="79"/>
+      <c r="Q34" s="62"/>
+      <c r="S34" s="76"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="78"/>
-      <c r="W34" s="79"/>
+      <c r="U34" s="75"/>
+      <c r="W34" s="76"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="78"/>
+      <c r="Y34" s="75"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="34"/>
-      <c r="G35" s="62"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="33"/>
+      <c r="G35" s="61"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="63"/>
-      <c r="K35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="K35" s="61"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="63"/>
-      <c r="O35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="O35" s="61"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="63"/>
-      <c r="S35" s="79"/>
+      <c r="Q35" s="62"/>
+      <c r="S35" s="76"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="78"/>
-      <c r="W35" s="79"/>
+      <c r="U35" s="75"/>
+      <c r="W35" s="76"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="78"/>
+      <c r="Y35" s="75"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="34"/>
-      <c r="G36" s="62"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="33"/>
+      <c r="G36" s="61"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="63"/>
-      <c r="K36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="K36" s="61"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="63"/>
-      <c r="O36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="O36" s="61"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="63"/>
-      <c r="S36" s="79"/>
+      <c r="Q36" s="62"/>
+      <c r="S36" s="76"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="78"/>
-      <c r="W36" s="79"/>
+      <c r="U36" s="75"/>
+      <c r="W36" s="76"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="78"/>
+      <c r="Y36" s="75"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="62"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="33"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="63"/>
-      <c r="K37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="K37" s="61"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="63"/>
-      <c r="O37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="O37" s="61"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="63"/>
-      <c r="S37" s="79"/>
+      <c r="Q37" s="62"/>
+      <c r="S37" s="76"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="78"/>
-      <c r="W37" s="79"/>
+      <c r="U37" s="75"/>
+      <c r="W37" s="76"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="78"/>
+      <c r="Y37" s="75"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="62"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="33"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="63"/>
-      <c r="K38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="63"/>
-      <c r="O38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="O38" s="61"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="63"/>
-      <c r="S38" s="79"/>
+      <c r="Q38" s="62"/>
+      <c r="S38" s="76"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="78"/>
-      <c r="W38" s="79"/>
+      <c r="U38" s="75"/>
+      <c r="W38" s="76"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="78"/>
+      <c r="Y38" s="75"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="34"/>
-      <c r="G39" s="62"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="33"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="63"/>
-      <c r="K39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="K39" s="61"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="63"/>
-      <c r="O39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="O39" s="61"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="63"/>
-      <c r="S39" s="79"/>
+      <c r="Q39" s="62"/>
+      <c r="S39" s="76"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="78"/>
-      <c r="W39" s="79"/>
+      <c r="U39" s="75"/>
+      <c r="W39" s="76"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="78"/>
+      <c r="Y39" s="75"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="34"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="63"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="63"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="63"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="69"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="69"/>
       <c r="S40" s="79"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="78"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="81"/>
       <c r="W40" s="79"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="78"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="81"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="35"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="70"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="70"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="84"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="84"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A1" name="title"/>
-    <protectedRange sqref="A31:Y41" name="Questionnaire"/>
-    <protectedRange sqref="A7:G7 A8:F8 A9:G28 J7:K7 J8 J9:K28 N7:O28" name="Contact Fields"/>
-    <protectedRange sqref="S4:Y6 V7:Y9 S10:Y41" name="customEntity"/>
-    <protectedRange sqref="G8 K8" name="Contact Fields_2"/>
-    <protectedRange sqref="H7:I28" name="Contact Fields_5"/>
-    <protectedRange sqref="L7:M28" name="Contact Fields_6"/>
-    <protectedRange sqref="P7:Q28" name="Contact Fields_7"/>
-    <protectedRange sqref="S7:U9" name="customEntity_1"/>
+    <protectedRange sqref="A30:Y40" name="Questionnaire"/>
+    <protectedRange sqref="A6:G6 A7:F7 A8:G27 J6:K6 J7 J8:K27 N6:O27" name="Contact Fields"/>
+    <protectedRange sqref="S3:Y5 S9:Y40 V6:Y8" name="customEntity"/>
+    <protectedRange sqref="G7 K7" name="Contact Fields_2"/>
+    <protectedRange sqref="H6:I27" name="Contact Fields_5"/>
+    <protectedRange sqref="L6:M27" name="Contact Fields_6"/>
+    <protectedRange sqref="P6:Q27" name="Contact Fields_7"/>
+    <protectedRange sqref="S6:U8" name="customEntity_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A8:F8 A9:G25 A26:F26 A29:AG29 A27:G28 N25:O28 N24 J8 J9:K28 N8:O23 R10:AG28 R8:R9 V8:AG9">
+  <conditionalFormatting sqref="A7:F7 A8:G24 A25:F25 A28:AG28 A26:G27 N24:O27 N23 J7 J8:K27 N7:O22 R9:AG27 R7:R8 V7:AG8">
     <cfRule type="expression" dxfId="41" priority="61">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="62">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30:Y40">
+    <cfRule type="expression" dxfId="39" priority="59">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="60">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:U40">
+    <cfRule type="expression" dxfId="37" priority="57">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="58">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:Q40">
+    <cfRule type="expression" dxfId="35" priority="55">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="56">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:M40">
+    <cfRule type="expression" dxfId="33" priority="53">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="54">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:I40">
+    <cfRule type="expression" dxfId="31" priority="51">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="52">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="29" priority="47">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="48">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="27" priority="39">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="40">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>$D23="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I24 H26:I27">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="62">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31:Y41">
-    <cfRule type="expression" dxfId="39" priority="59">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="H25:I25">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C25="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="60">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D25="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S31:U41">
-    <cfRule type="expression" dxfId="37" priority="57">
-      <formula>$C31="x"</formula>
+  <conditionalFormatting sqref="H7:I7">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="58">
-      <formula>$D31="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:Q41">
-    <cfRule type="expression" dxfId="35" priority="55">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="56">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:M41">
-    <cfRule type="expression" dxfId="33" priority="53">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="54">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:I41">
-    <cfRule type="expression" dxfId="31" priority="51">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="52">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="29" priority="47">
-      <formula>$C26="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="48">
-      <formula>$D26="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="27" priority="39">
+  <conditionalFormatting sqref="L8:M22 L24:M27">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="25" priority="31">
-      <formula>$C24="x"</formula>
+  <conditionalFormatting sqref="L7:M7">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$D24="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="23" priority="23">
+  <conditionalFormatting sqref="L23:M23">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D23="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:Q7 P9:Q22 P24:Q27">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q8">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:I25 H27:I28">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$C9="x"</formula>
+  <conditionalFormatting sqref="P8:Q8">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$D9="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:I26">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C26="x"</formula>
+  <conditionalFormatting sqref="P23:Q23">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C23="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D26="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D23="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="S7:U8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:M23 L25:M28">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M8">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M24">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C24="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D24="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q8 P10:Q23 P25:Q28">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Q24">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C24="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D24="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U9">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y31:Y41 I31:I41 M31:M41 Q31:Q41 U31:U41 M7:M28 I7:I28 Q7:Q28 Y7:Y28 U7:U28" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D27" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
+      <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
-      <formula1>"x"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28" xr:uid="{125A7438-0B16-46E7-85C2-AAA629C0F6EA}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I27 I30:I40 M30:M40 M6:M27 Q6:Q27 Q30:Q40 U30:U40 U6:U27 Y7:Y27 Y6 Y30:Y40" xr:uid="{C9A9CA8E-BB67-419B-B85B-44068F276D8E}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4156,6 +4051,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4364,15 +4268,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4380,6 +4275,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4394,14 +4297,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SAGE_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336495A4-9A4C-42AA-A40F-AE2B9F9C8133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8137332-6D8C-4D55-A4D3-DCBE24AD233B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="checkbox">Specifications!$C$6:$D$27,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$I$6:$I$27,Specifications!$M$6:$M$27,Specifications!$Q$6:$Q$27,Specifications!$U$6:$U$27,Specifications!$Y$6:$Y$27,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$30:$I$40,Specifications!$M$30:$M$40,Specifications!$Q$30:$Q$40,Specifications!$U$30:$U$40,Specifications!$Y$30:$Y$40</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$27,Specifications!$M$6:$M$27,Specifications!$Q$6:$Q$27,Specifications!$U$6:$U$27,Specifications!$Y$6:$Y$27,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$30:$I$38,Specifications!$M$30:$M$38,Specifications!$Q$30:$Q$38,Specifications!$U$30:$U$38,Specifications!$Y$30:$Y$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
   <si>
     <t>Website</t>
   </si>
@@ -121,18 +121,9 @@
     <t>custom2__c</t>
   </si>
   <si>
-    <t>Campaign ID</t>
-  </si>
-  <si>
     <t>Field Value</t>
   </si>
   <si>
-    <t>ID in Template</t>
-  </si>
-  <si>
-    <t>VR Title</t>
-  </si>
-  <si>
     <t>CreatedBy</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>Title of Template</t>
-  </si>
-  <si>
     <t>Time when report is created</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>SAGE: Custom Entity (optional)</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>SAGE: Person</t>
   </si>
   <si>
@@ -305,6 +290,9 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -418,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -677,43 +665,6 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
@@ -779,19 +730,6 @@
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -846,19 +784,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1346,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1392,38 +1317,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1436,61 +1357,70 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,31 +1429,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1445,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -1852,94 +1764,6 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2070,11 +1894,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="46"/>
-      <tableStyleElement type="headerRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2192,7 +2016,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2553,10 +2377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2592,103 +2416,105 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="G2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="G3" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
+      <c r="C3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="G3" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="O3" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="S3" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="99"/>
-      <c r="U3" s="100"/>
-      <c r="W3" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="100"/>
+      <c r="K3" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="O3" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="S3" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="94"/>
+      <c r="U3" s="95"/>
+      <c r="W3" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="95"/>
     </row>
     <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="55" t="s">
+      <c r="B5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="55" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="71" t="s">
+      <c r="T5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="72" t="s">
+      <c r="U5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="70" t="s">
+      <c r="W5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="71" t="s">
+      <c r="X5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="72" t="s">
+      <c r="Y5" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2697,66 +2523,64 @@
       <c r="B6" s="16"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="35"/>
-      <c r="G6" s="58"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="59"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="58"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="59"/>
-      <c r="O6" s="58"/>
+      <c r="M6" s="57"/>
+      <c r="O6" s="56"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="59"/>
-      <c r="S6" s="73"/>
+      <c r="Q6" s="57"/>
+      <c r="S6" s="71"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="74"/>
-      <c r="W6" s="73"/>
+      <c r="U6" s="72"/>
+      <c r="W6" s="71"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="74"/>
+      <c r="Y6" s="72"/>
     </row>
-    <row r="7" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="G7" s="58" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="G7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="58" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="61"/>
+      <c r="O7" s="59"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="62"/>
-      <c r="S7" s="76" t="s">
+      <c r="Q7" s="60"/>
+      <c r="S7" s="74" t="s">
         <v>24</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="75"/>
-      <c r="W7" s="76"/>
+      <c r="U7" s="73"/>
+      <c r="W7" s="74"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="75"/>
+      <c r="Y7" s="73"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2765,39 +2589,39 @@
       <c r="B8" s="17"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="36"/>
-      <c r="G8" s="61" t="s">
-        <v>80</v>
+      <c r="E8" s="34"/>
+      <c r="G8" s="59" t="s">
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="61" t="s">
-        <v>80</v>
+      <c r="K8" s="59" t="s">
+        <v>75</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="60"/>
-      <c r="S8" s="76" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="58"/>
+      <c r="S8" s="74" t="s">
         <v>26</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="75"/>
-      <c r="W8" s="76"/>
+      <c r="U8" s="73"/>
+      <c r="W8" s="74"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="75"/>
+      <c r="Y8" s="73"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2806,35 +2630,35 @@
       <c r="B9" s="17"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="36"/>
-      <c r="G9" s="61" t="s">
-        <v>81</v>
+      <c r="E9" s="34"/>
+      <c r="G9" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="61" t="s">
-        <v>81</v>
+      <c r="K9" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="62"/>
-      <c r="S9" s="76"/>
+      <c r="Q9" s="60"/>
+      <c r="S9" s="74"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="75"/>
-      <c r="W9" s="76"/>
+      <c r="U9" s="73"/>
+      <c r="W9" s="74"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="75"/>
+      <c r="Y9" s="73"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2843,35 +2667,35 @@
       <c r="B10" s="17"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="36"/>
-      <c r="G10" s="61" t="s">
+      <c r="E10" s="34"/>
+      <c r="G10" s="59" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="59" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="61"/>
+      <c r="O10" s="59"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="62"/>
-      <c r="S10" s="76"/>
+      <c r="Q10" s="60"/>
+      <c r="S10" s="74"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="75"/>
-      <c r="W10" s="76"/>
+      <c r="U10" s="73"/>
+      <c r="W10" s="74"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="75"/>
+      <c r="Y10" s="73"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2880,35 +2704,35 @@
       <c r="B11" s="17"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="36"/>
-      <c r="G11" s="61" t="s">
-        <v>82</v>
+      <c r="E11" s="34"/>
+      <c r="G11" s="59" t="s">
+        <v>77</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="61"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="62"/>
-      <c r="O11" s="61" t="s">
-        <v>70</v>
+      <c r="M11" s="60"/>
+      <c r="O11" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="76"/>
+      <c r="S11" s="74"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="75"/>
-      <c r="W11" s="76"/>
+      <c r="U11" s="73"/>
+      <c r="W11" s="74"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="75"/>
+      <c r="Y11" s="73"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2917,84 +2741,84 @@
       <c r="B12" s="18"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="36"/>
-      <c r="G12" s="58" t="s">
+      <c r="E12" s="34"/>
+      <c r="G12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="57" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="76"/>
+      <c r="S12" s="74"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="75"/>
-      <c r="W12" s="76"/>
+      <c r="U12" s="73"/>
+      <c r="W12" s="74"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="75"/>
+      <c r="Y12" s="73"/>
     </row>
-    <row r="13" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="G13" s="63" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="G13" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="63" t="s">
+      <c r="J13" s="47"/>
+      <c r="K13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="64" t="s">
+      <c r="L13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="63" t="s">
+      <c r="O13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="64" t="s">
+      <c r="P13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="77"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="78"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="78"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="76"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="76"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -3003,41 +2827,41 @@
       <c r="B14" s="19"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="36"/>
-      <c r="G14" s="65" t="s">
+      <c r="E14" s="34"/>
+      <c r="G14" s="63" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="63" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="63" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="76"/>
+      <c r="S14" s="74"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="75"/>
-      <c r="W14" s="76"/>
+      <c r="U14" s="73"/>
+      <c r="W14" s="74"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="75"/>
+      <c r="Y14" s="73"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3046,41 +2870,41 @@
       <c r="B15" s="17"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="36"/>
-      <c r="G15" s="61" t="s">
-        <v>83</v>
+      <c r="E15" s="34"/>
+      <c r="G15" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="61" t="s">
-        <v>83</v>
+      <c r="K15" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="61" t="s">
-        <v>83</v>
+      <c r="O15" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15" s="74"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="75"/>
-      <c r="W15" s="76"/>
+      <c r="U15" s="73"/>
+      <c r="W15" s="74"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="75"/>
+      <c r="Y15" s="73"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3089,41 +2913,41 @@
       <c r="B16" s="17"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="36"/>
-      <c r="G16" s="61" t="s">
+      <c r="E16" s="34"/>
+      <c r="G16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="61" t="s">
+      <c r="K16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="61" t="s">
+      <c r="O16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="76"/>
+      <c r="S16" s="74"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="75"/>
-      <c r="W16" s="76"/>
+      <c r="U16" s="73"/>
+      <c r="W16" s="74"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="75"/>
+      <c r="Y16" s="73"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -3132,37 +2956,37 @@
       <c r="B17" s="17"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="36"/>
-      <c r="G17" s="61" t="s">
+      <c r="E17" s="34"/>
+      <c r="G17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="62"/>
-      <c r="O17" s="61" t="s">
+      <c r="M17" s="60"/>
+      <c r="O17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="76"/>
+      <c r="S17" s="74"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="75"/>
-      <c r="W17" s="76"/>
+      <c r="U17" s="73"/>
+      <c r="W17" s="74"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="75"/>
+      <c r="Y17" s="73"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -3171,54 +2995,54 @@
       <c r="B18" s="17"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="36"/>
-      <c r="G18" s="61"/>
+      <c r="E18" s="34"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="62"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="61"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="62"/>
-      <c r="O18" s="61"/>
+      <c r="M18" s="60"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="62"/>
-      <c r="S18" s="76"/>
+      <c r="Q18" s="60"/>
+      <c r="S18" s="74"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="75"/>
-      <c r="W18" s="76"/>
+      <c r="U18" s="73"/>
+      <c r="W18" s="74"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="75"/>
+      <c r="Y18" s="73"/>
     </row>
-    <row r="19" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="G19" s="63" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="G19" s="61" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="64"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="64"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="78"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="78"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="62"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="62"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="76"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="76"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -3227,41 +3051,41 @@
       <c r="B20" s="17"/>
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="36"/>
-      <c r="G20" s="61" t="s">
+      <c r="E20" s="34"/>
+      <c r="G20" s="59" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="60" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="59" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="61" t="s">
-        <v>88</v>
+      <c r="O20" s="59" t="s">
+        <v>83</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="76"/>
+      <c r="S20" s="74"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="75"/>
-      <c r="W20" s="76"/>
+      <c r="U20" s="73"/>
+      <c r="W20" s="74"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="75"/>
+      <c r="Y20" s="73"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3270,144 +3094,144 @@
       <c r="B21" s="17"/>
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="36"/>
-      <c r="G21" s="58" t="s">
+      <c r="E21" s="34"/>
+      <c r="G21" s="56" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="57" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="56" t="s">
         <v>0</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="56" t="s">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="73"/>
+      <c r="S21" s="71"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="74"/>
-      <c r="W21" s="73"/>
+      <c r="U21" s="72"/>
+      <c r="W21" s="71"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="74"/>
+      <c r="Y21" s="72"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="36"/>
-      <c r="G22" s="58" t="s">
-        <v>71</v>
+      <c r="E22" s="34"/>
+      <c r="G22" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="57" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="58"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="59"/>
-      <c r="O22" s="58"/>
+      <c r="M22" s="57"/>
+      <c r="O22" s="56"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="59"/>
-      <c r="S22" s="73"/>
+      <c r="Q22" s="57"/>
+      <c r="S22" s="71"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="74"/>
-      <c r="W22" s="73"/>
+      <c r="U22" s="72"/>
+      <c r="W22" s="71"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="74"/>
+      <c r="Y22" s="72"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="36"/>
-      <c r="G23" s="58" t="s">
-        <v>73</v>
+      <c r="E23" s="34"/>
+      <c r="G23" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="57" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="58"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="58" t="s">
-        <v>73</v>
+      <c r="O23" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="73"/>
+      <c r="S23" s="71"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="74"/>
-      <c r="W23" s="73"/>
+      <c r="U23" s="72"/>
+      <c r="W23" s="71"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="74"/>
+      <c r="Y23" s="72"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="36"/>
-      <c r="G24" s="58" t="s">
-        <v>75</v>
+      <c r="E24" s="34"/>
+      <c r="G24" s="56" t="s">
+        <v>70</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="57" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="58"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="59"/>
-      <c r="O24" s="58"/>
+      <c r="M24" s="57"/>
+      <c r="O24" s="56"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="59"/>
-      <c r="S24" s="73"/>
+      <c r="Q24" s="57"/>
+      <c r="S24" s="71"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="74"/>
-      <c r="W24" s="73"/>
+      <c r="U24" s="72"/>
+      <c r="W24" s="71"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="74"/>
+      <c r="Y24" s="72"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -3416,89 +3240,89 @@
       <c r="B25" s="17"/>
       <c r="C25" s="23"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="36"/>
-      <c r="G25" s="58"/>
+      <c r="E25" s="34"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="59"/>
+      <c r="I25" s="57"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="56" t="s">
         <v>4</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="58"/>
+      <c r="O25" s="56"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="59"/>
-      <c r="S25" s="73"/>
+      <c r="Q25" s="57"/>
+      <c r="S25" s="71"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="74"/>
-      <c r="W25" s="73"/>
+      <c r="U25" s="72"/>
+      <c r="W25" s="71"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="74"/>
+      <c r="Y25" s="72"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="G26" s="58" t="s">
-        <v>86</v>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="G26" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="57" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="58"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="59"/>
-      <c r="O26" s="58" t="s">
-        <v>78</v>
+      <c r="M26" s="57"/>
+      <c r="O26" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="73"/>
+      <c r="S26" s="71"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="74"/>
-      <c r="W26" s="73"/>
+      <c r="U26" s="72"/>
+      <c r="W26" s="71"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="74"/>
+      <c r="Y26" s="72"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="20"/>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
-      <c r="E27" s="37"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
+      <c r="E27" s="35"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="81"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="81"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="67"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="67"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="79"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="79"/>
     </row>
     <row r="28" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="8"/>
@@ -3511,405 +3335,319 @@
       <c r="O28" s="8"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="9"/>
-      <c r="S28" s="53"/>
+      <c r="S28" s="51"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="54"/>
+      <c r="U28" s="52"/>
       <c r="W28" s="8"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="84" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="H29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="56" t="s">
+      <c r="L29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="57" t="s">
+      <c r="M29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="55" t="s">
+      <c r="O29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="56" t="s">
+      <c r="P29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="57" t="s">
+      <c r="Q29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="70" t="s">
+      <c r="S29" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="T29" s="71" t="s">
+      <c r="T29" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="U29" s="72" t="s">
+      <c r="U29" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="W29" s="70" t="s">
+      <c r="W29" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="X29" s="71" t="s">
+      <c r="X29" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Y29" s="72" t="s">
+      <c r="Y29" s="70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="32"/>
-      <c r="G30" s="61"/>
+      <c r="B30" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="31"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="62"/>
-      <c r="K30" s="61"/>
+      <c r="I30" s="60"/>
+      <c r="K30" s="59"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="62"/>
-      <c r="O30" s="61"/>
+      <c r="M30" s="60"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="62"/>
-      <c r="S30" s="76"/>
+      <c r="Q30" s="60"/>
+      <c r="S30" s="74"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="75"/>
-      <c r="W30" s="76"/>
+      <c r="U30" s="73"/>
+      <c r="W30" s="74"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="75"/>
+      <c r="Y30" s="73"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="33"/>
-      <c r="G31" s="61"/>
+      <c r="A31" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="31"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="62"/>
-      <c r="K31" s="61"/>
+      <c r="I31" s="60"/>
+      <c r="K31" s="59"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="62"/>
-      <c r="O31" s="61"/>
+      <c r="M31" s="60"/>
+      <c r="O31" s="59"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="62"/>
-      <c r="S31" s="76"/>
+      <c r="Q31" s="60"/>
+      <c r="S31" s="74"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="75"/>
-      <c r="W31" s="76"/>
+      <c r="U31" s="73"/>
+      <c r="W31" s="74"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="75"/>
+      <c r="Y31" s="73"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="33"/>
-      <c r="G32" s="61"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="31"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="62"/>
-      <c r="K32" s="61"/>
+      <c r="I32" s="60"/>
+      <c r="K32" s="59"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="62"/>
-      <c r="O32" s="61"/>
+      <c r="M32" s="60"/>
+      <c r="O32" s="59"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="62"/>
-      <c r="S32" s="76"/>
+      <c r="Q32" s="60"/>
+      <c r="S32" s="74"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="75"/>
-      <c r="W32" s="76"/>
+      <c r="U32" s="73"/>
+      <c r="W32" s="74"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="75"/>
+      <c r="Y32" s="73"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="33"/>
-      <c r="G33" s="61"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="31"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="62"/>
-      <c r="K33" s="61"/>
+      <c r="I33" s="60"/>
+      <c r="K33" s="59"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="62"/>
-      <c r="O33" s="61"/>
+      <c r="M33" s="60"/>
+      <c r="O33" s="59"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="62"/>
-      <c r="S33" s="76"/>
+      <c r="Q33" s="60"/>
+      <c r="S33" s="74"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="75"/>
-      <c r="W33" s="76"/>
+      <c r="U33" s="73"/>
+      <c r="W33" s="74"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="75"/>
+      <c r="Y33" s="73"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="33"/>
-      <c r="G34" s="61"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="31"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="62"/>
-      <c r="K34" s="61"/>
+      <c r="I34" s="60"/>
+      <c r="K34" s="59"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="62"/>
-      <c r="O34" s="61"/>
+      <c r="M34" s="60"/>
+      <c r="O34" s="59"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="62"/>
-      <c r="S34" s="76"/>
+      <c r="Q34" s="60"/>
+      <c r="S34" s="74"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="75"/>
-      <c r="W34" s="76"/>
+      <c r="U34" s="73"/>
+      <c r="W34" s="74"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="75"/>
+      <c r="Y34" s="73"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="33"/>
-      <c r="G35" s="61"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="31"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="62"/>
-      <c r="K35" s="61"/>
+      <c r="I35" s="60"/>
+      <c r="K35" s="59"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="62"/>
-      <c r="O35" s="61"/>
+      <c r="M35" s="60"/>
+      <c r="O35" s="59"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="62"/>
-      <c r="S35" s="76"/>
+      <c r="Q35" s="60"/>
+      <c r="S35" s="74"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="75"/>
-      <c r="W35" s="76"/>
+      <c r="U35" s="73"/>
+      <c r="W35" s="74"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="75"/>
+      <c r="Y35" s="73"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="33"/>
-      <c r="G36" s="61"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="31"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="62"/>
-      <c r="K36" s="61"/>
+      <c r="I36" s="60"/>
+      <c r="K36" s="59"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="62"/>
-      <c r="O36" s="61"/>
+      <c r="M36" s="60"/>
+      <c r="O36" s="59"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="62"/>
-      <c r="S36" s="76"/>
+      <c r="Q36" s="60"/>
+      <c r="S36" s="74"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="75"/>
-      <c r="W36" s="76"/>
+      <c r="U36" s="73"/>
+      <c r="W36" s="74"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="75"/>
+      <c r="Y36" s="73"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="33"/>
-      <c r="G37" s="61"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="31"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="62"/>
-      <c r="K37" s="61"/>
+      <c r="I37" s="60"/>
+      <c r="K37" s="59"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="62"/>
-      <c r="O37" s="61"/>
+      <c r="M37" s="60"/>
+      <c r="O37" s="59"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="62"/>
-      <c r="S37" s="76"/>
+      <c r="Q37" s="60"/>
+      <c r="S37" s="74"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="75"/>
-      <c r="W37" s="76"/>
+      <c r="U37" s="73"/>
+      <c r="W37" s="74"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="75"/>
+      <c r="Y37" s="73"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="33"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="62"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="62"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="62"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="75"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="75"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="32"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="67"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="67"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="79"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="79"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="33"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="62"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="62"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="62"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="75"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="75"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="34"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="69"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="69"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="81"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="81"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A30:Y40" name="Questionnaire"/>
+    <protectedRange sqref="A30:Y38" name="Questionnaire"/>
     <protectedRange sqref="A6:G6 A7:F7 A8:G27 J6:K6 J7 J8:K27 N6:O27" name="Contact Fields"/>
-    <protectedRange sqref="S3:Y5 S9:Y40 V6:Y8" name="customEntity"/>
+    <protectedRange sqref="S3:Y5 V6:Y8 S9:Y38" name="customEntity"/>
     <protectedRange sqref="G7 K7" name="Contact Fields_2"/>
     <protectedRange sqref="H6:I27" name="Contact Fields_5"/>
     <protectedRange sqref="L6:M27" name="Contact Fields_6"/>
     <protectedRange sqref="P6:Q27" name="Contact Fields_7"/>
     <protectedRange sqref="S6:U8" name="customEntity_1"/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A7:F7 A8:G24 A25:F25 A28:AG28 A26:G27 N24:O27 N23 J7 J8:K27 N7:O22 R9:AG27 R7:R8 V7:AG8">
-    <cfRule type="expression" dxfId="41" priority="61">
+    <cfRule type="expression" dxfId="33" priority="61">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="62">
+    <cfRule type="expression" dxfId="32" priority="62">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30:Y40">
-    <cfRule type="expression" dxfId="39" priority="59">
+  <conditionalFormatting sqref="W30:Y38 S30:U38 O30:Q38 K30:M38 G30:I38">
+    <cfRule type="expression" dxfId="31" priority="59">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="60">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:U40">
-    <cfRule type="expression" dxfId="37" priority="57">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="58">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:Q40">
-    <cfRule type="expression" dxfId="35" priority="55">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="56">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:M40">
-    <cfRule type="expression" dxfId="33" priority="53">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="54">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:I40">
-    <cfRule type="expression" dxfId="31" priority="51">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="52">
+    <cfRule type="expression" dxfId="30" priority="60">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4040,7 +3778,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28" xr:uid="{125A7438-0B16-46E7-85C2-AAA629C0F6EA}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I27 I30:I40 M30:M40 M6:M27 Q6:Q27 Q30:Q40 U30:U40 U6:U27 Y7:Y27 Y6 Y30:Y40" xr:uid="{C9A9CA8E-BB67-419B-B85B-44068F276D8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I27 M6:M27 Q6:Q27 U6:U27 Y6:Y27 I30:I38 M30:M38 Q30:Q38 U30:U38 Y30:Y38" xr:uid="{C9A9CA8E-BB67-419B-B85B-44068F276D8E}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
